--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_125.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_125.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Knights Inn New Orleans</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>45</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7072</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70127</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70127</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_125.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_125.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,789 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r507244645-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>89061</t>
+  </si>
+  <si>
+    <t>507244645</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here and was disappointed in the majority of the experience. The only positive was the young lady who worked the evening shift who tried her best to make things better, it didn't work, but we appreciated her efforts. Our 1st night our room had a dead bolt that wouldn't lock, the wifi was non-existent, and you couldn't close the bathroom door. Called 3 times for help with wifi, but it just never worked. The next morning I stopped by the front desk to ask about moving to a different room because the door wouldn't lock, no wifi and you couldn't close the bathroom door unless you lifted the toilet seat. He said he would try and find us a different room and would call my cell. Not surprised that he never called. Checked in when we returned at the end of the day and the nice lady hadn't heard about our problems and she was able to move our room. The 2nd room was better, but we were still unable to use wifi. The 2nd night we went to the lobby to access the Internet, but it was karaoke night and the bar had no door so we got to listen to some bad singers sing the same songs over and over. Eventually, the loud, off key singing was more than we could stand that we gave up and went back to our room. 
+I was not...Spent 3 nights here and was disappointed in the majority of the experience. The only positive was the young lady who worked the evening shift who tried her best to make things better, it didn't work, but we appreciated her efforts. Our 1st night our room had a dead bolt that wouldn't lock, the wifi was non-existent, and you couldn't close the bathroom door. Called 3 times for help with wifi, but it just never worked. The next morning I stopped by the front desk to ask about moving to a different room because the door wouldn't lock, no wifi and you couldn't close the bathroom door unless you lifted the toilet seat. He said he would try and find us a different room and would call my cell. Not surprised that he never called. Checked in when we returned at the end of the day and the nice lady hadn't heard about our problems and she was able to move our room. The 2nd room was better, but we were still unable to use wifi. The 2nd night we went to the lobby to access the Internet, but it was karaoke night and the bar had no door so we got to listen to some bad singers sing the same songs over and over. Eventually, the loud, off key singing was more than we could stand that we gave up and went back to our room. I was not expecting a 5 star hotel, but this was bad. Definitely will not return.  I find it very frustrating that you say you have wifi and it doesn't work and nothing is done to correct the problem you know exists!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here and was disappointed in the majority of the experience. The only positive was the young lady who worked the evening shift who tried her best to make things better, it didn't work, but we appreciated her efforts. Our 1st night our room had a dead bolt that wouldn't lock, the wifi was non-existent, and you couldn't close the bathroom door. Called 3 times for help with wifi, but it just never worked. The next morning I stopped by the front desk to ask about moving to a different room because the door wouldn't lock, no wifi and you couldn't close the bathroom door unless you lifted the toilet seat. He said he would try and find us a different room and would call my cell. Not surprised that he never called. Checked in when we returned at the end of the day and the nice lady hadn't heard about our problems and she was able to move our room. The 2nd room was better, but we were still unable to use wifi. The 2nd night we went to the lobby to access the Internet, but it was karaoke night and the bar had no door so we got to listen to some bad singers sing the same songs over and over. Eventually, the loud, off key singing was more than we could stand that we gave up and went back to our room. 
+I was not...Spent 3 nights here and was disappointed in the majority of the experience. The only positive was the young lady who worked the evening shift who tried her best to make things better, it didn't work, but we appreciated her efforts. Our 1st night our room had a dead bolt that wouldn't lock, the wifi was non-existent, and you couldn't close the bathroom door. Called 3 times for help with wifi, but it just never worked. The next morning I stopped by the front desk to ask about moving to a different room because the door wouldn't lock, no wifi and you couldn't close the bathroom door unless you lifted the toilet seat. He said he would try and find us a different room and would call my cell. Not surprised that he never called. Checked in when we returned at the end of the day and the nice lady hadn't heard about our problems and she was able to move our room. The 2nd room was better, but we were still unable to use wifi. The 2nd night we went to the lobby to access the Internet, but it was karaoke night and the bar had no door so we got to listen to some bad singers sing the same songs over and over. Eventually, the loud, off key singing was more than we could stand that we gave up and went back to our room. I was not expecting a 5 star hotel, but this was bad. Definitely will not return.  I find it very frustrating that you say you have wifi and it doesn't work and nothing is done to correct the problem you know exists!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r490372130-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>490372130</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Dont go here</t>
+  </si>
+  <si>
+    <t>Hotel room door was open hot water running and garbage on balcony and stunk. People was also rude. I will not visit here again as long as i live. The second i got home i took a shower because it felt gross there after what i encountered</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r470723173-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>470723173</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Do not stay</t>
+  </si>
+  <si>
+    <t>The woman at the check in took over 10 minutes to acknowledge us and was very short and rude when she did. We got to our floor and the hall smelled like weed. Our room was dirty with plastic spoons behind the curtains. The carpet was sticky and the curtains were torn. Our air conditioning unit was falling apart and extremely loud. The other guests in the hotel were loud and obnoxious all night, contributing to our nearly sleepless night on rock hard beds</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r447543921-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>447543921</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Read and Believe the Reviews here!</t>
+  </si>
+  <si>
+    <t>Upon entering our room and turning on the lights, there were roaches scattering across the bed.  Because we arrived late and my husband was not feeling well, I went down to the front desk and asked if they had a different room in another part of the hotel.  The second room was in really bad condition, i.e., missing light bulbs, dirty carpets, curtains, etc. but at least we did not see any roaches, so given my husband's illness, we settled, uneasily, in for the night.  However, I got on the phone and immediately cancelled the rest of our reservation.  We left the following morning and could hardly wait to get out of this dank, dark, dirty place.  Just believe me, you won't like it!!!  Note: To Management.  While I don't wish to hurt your business, you must do a better job if you are going to charge people to stay at your facility!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Upon entering our room and turning on the lights, there were roaches scattering across the bed.  Because we arrived late and my husband was not feeling well, I went down to the front desk and asked if they had a different room in another part of the hotel.  The second room was in really bad condition, i.e., missing light bulbs, dirty carpets, curtains, etc. but at least we did not see any roaches, so given my husband's illness, we settled, uneasily, in for the night.  However, I got on the phone and immediately cancelled the rest of our reservation.  We left the following morning and could hardly wait to get out of this dank, dark, dirty place.  Just believe me, you won't like it!!!  Note: To Management.  While I don't wish to hurt your business, you must do a better job if you are going to charge people to stay at your facility!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r435927835-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>435927835</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>I was traveling to New Orleans to board a cruise ship. it was myself, and two other women. We weren't looking to spend a ton of money.. and we didn't! But it also wasn't a luxury hotel. Our toilet stopped working at one point but they came up and fixed it. Our phone wasn't working and we had to get another. The complimentary breakfast was average. The staff was very nice and accommodating. It wasn't the nicest place by any means but it wasn't the worst place I've ever stayed either. My biggest factor is I didn't feel as if my safety was in Jeopardy.. And hey! The locks on the door worked. If your looking for just somewhere to sleep on a budget, and your not picky, I'd recommend it. I would stay here again to board another ship..MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I was traveling to New Orleans to board a cruise ship. it was myself, and two other women. We weren't looking to spend a ton of money.. and we didn't! But it also wasn't a luxury hotel. Our toilet stopped working at one point but they came up and fixed it. Our phone wasn't working and we had to get another. The complimentary breakfast was average. The staff was very nice and accommodating. It wasn't the nicest place by any means but it wasn't the worst place I've ever stayed either. My biggest factor is I didn't feel as if my safety was in Jeopardy.. And hey! The locks on the door worked. If your looking for just somewhere to sleep on a budget, and your not picky, I'd recommend it. I would stay here again to board another ship..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r435177398-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>435177398</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Bugs, no tv, no wifi, dirty carpet, doors not working, don't sleep here.  Dirty bathroom. Lots of noise, smelling rooms. I dont think they clean iT here. Never go back there ever again. Didn't sleep because of dripping water in bathroom and the awful smell</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r432535744-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>432535744</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Horrendous room</t>
+  </si>
+  <si>
+    <t>The room was hard to find, as it is part of another hotel, and the Knights Inn sign is missing.  My room smelled moldy and the bathroom was a disaster.  The faucet was broken and I couldn't take a proper shower.  Microwave and fridge were dirty.  Will never stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r428747017-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>428747017</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Was a weekend getaway</t>
+  </si>
+  <si>
+    <t>Place was awful just like all of the other reviews. Ckd in and immediately saw someone on the balcony smoking weed. Room was dirty, bottle caps on floor, tub was dirty, only 2 towels in unit. Was worried about vehicle all night. Place was just nasty and the pictures on the website are deceiving. Property looks nothing like them. NEVER AGAIN! Will pay more to sleep in clean beds and take a shower in a clean tub.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r415550094-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>415550094</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for!</t>
+  </si>
+  <si>
+    <t>Yes this hotel is very inexpensive and it shows. The carpet was stained, the floor smelled of Marijuana as soon as we stepped of the elevator. The bathtub did not look clean at all and there were roaches crawling on the wall! It got the job done as far as somewhere to sleep but I would not recommend staying here. Also, the curtains were not blackout like expected at a hotel. There was a very bright spotlight from the pool that pointed directly at our window all night.There are other hotels around the same price range. If you have a few more dollars to spare, I would advise staying somewhere else. The only reason I have 2 stars is because the front desk hosts were very polite and welcoming. They had smiles and everytime we walked out, they asked how we were doing and said enjoying your day with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Yes this hotel is very inexpensive and it shows. The carpet was stained, the floor smelled of Marijuana as soon as we stepped of the elevator. The bathtub did not look clean at all and there were roaches crawling on the wall! It got the job done as far as somewhere to sleep but I would not recommend staying here. Also, the curtains were not blackout like expected at a hotel. There was a very bright spotlight from the pool that pointed directly at our window all night.There are other hotels around the same price range. If you have a few more dollars to spare, I would advise staying somewhere else. The only reason I have 2 stars is because the front desk hosts were very polite and welcoming. They had smiles and everytime we walked out, they asked how we were doing and said enjoying your day with a smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r400219250-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>400219250</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Awful!</t>
+  </si>
+  <si>
+    <t>I will never ever stay at this place again! Rooms had sugar ants EVERY where ... staff was rude ... and I picked this motel for the reasonable price with a pool... my kids were given an excuse every time they tried to swim... first time I asked for towels they didn't have any available amd didn't feel like getting any so conveniently the pool close right then on a friday at 7:30 the time that we were trying to swim the next night my kids try to go swim at 8:30 because it was still unlocked and that conveniently was the time that it close that night ..... the cops were called on groups of 13 to 17 year old boys that were allowed to stay there without an adult .. I was in the elevator that only worked half the time with the boys mother at 2 am so the doors were locked and we had to walk all the way around the entire Motel just to get in continental breakfast?!?! HA HA juice and coffee is not breakfast the sliding glass Balcony door did not close all the way nor lock so thank GOD I didn't have a toddler! This place was horrible don't even waste your money on this crack motel pay the extra 10 for better safety and amenitiesMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I will never ever stay at this place again! Rooms had sugar ants EVERY where ... staff was rude ... and I picked this motel for the reasonable price with a pool... my kids were given an excuse every time they tried to swim... first time I asked for towels they didn't have any available amd didn't feel like getting any so conveniently the pool close right then on a friday at 7:30 the time that we were trying to swim the next night my kids try to go swim at 8:30 because it was still unlocked and that conveniently was the time that it close that night ..... the cops were called on groups of 13 to 17 year old boys that were allowed to stay there without an adult .. I was in the elevator that only worked half the time with the boys mother at 2 am so the doors were locked and we had to walk all the way around the entire Motel just to get in continental breakfast?!?! HA HA juice and coffee is not breakfast the sliding glass Balcony door did not close all the way nor lock so thank GOD I didn't have a toddler! This place was horrible don't even waste your money on this crack motel pay the extra 10 for better safety and amenitiesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r399748895-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>399748895</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Budget Friendly Place</t>
+  </si>
+  <si>
+    <t>Sure it wasn't 5 star, but I have no complaints. Our room was comfortable and the wifi worked fine. We never did see the continental breakfast, but that's because we don't make a point to wake up to early when we're on vacation. The location is close enough to downtown, without the high prices. There are also plenty of stores close by if you anything. For the most part our stay was quiet, but the noise level definitely increased on the weekend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r357317946-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>357317946</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would NEVER recommend this place. </t>
+  </si>
+  <si>
+    <t>On a cross country trip we planned to stay two nights for a short visit in NO. Not needing anything elaborate we chose KI to go easy on the budget through hotels.com. We also liked that they offered breakfast. The smell however, that greeted us inside the front door suggested we keep our expectations lower than we imagined. The room had the standard amenities but didn't 'feel' or smell clean. The shower, tv, a/c, etc., worked fine. We had no bug issues. It was okay enough for our intentions, until pulling back the blanket on my daughter's bed. There we discovered more hair than I've ever seen on any bed. It was disgusting. She assumed a dog must've slept in it. I let her think so, though I wondered if the room had actually been rented by the hour. My husband had already fallen asleep on the other (fortunately clean) bed. So I went to the front desk and got a whole new set of bedding. They offered to change our room but it was late. We checked out the next morning, without even trying the breakfast. They refunded us for the second night and were very apologetic. I appreciated how cooperative they were but I would never recommend staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>On a cross country trip we planned to stay two nights for a short visit in NO. Not needing anything elaborate we chose KI to go easy on the budget through hotels.com. We also liked that they offered breakfast. The smell however, that greeted us inside the front door suggested we keep our expectations lower than we imagined. The room had the standard amenities but didn't 'feel' or smell clean. The shower, tv, a/c, etc., worked fine. We had no bug issues. It was okay enough for our intentions, until pulling back the blanket on my daughter's bed. There we discovered more hair than I've ever seen on any bed. It was disgusting. She assumed a dog must've slept in it. I let her think so, though I wondered if the room had actually been rented by the hour. My husband had already fallen asleep on the other (fortunately clean) bed. So I went to the front desk and got a whole new set of bedding. They offered to change our room but it was late. We checked out the next morning, without even trying the breakfast. They refunded us for the second night and were very apologetic. I appreciated how cooperative they were but I would never recommend staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r353456921-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>353456921</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Run away, far, far away</t>
+  </si>
+  <si>
+    <t>We booked a few rooms on Priceline after reading mixed reviews. Nothing could have prepared us for the horror that awaited us. We arrived a day early and decided to just stay there for the night since we already had reservations. We asked for two beds, non smoking. As soon as we got off of the elevator we were immediately greeted by the fragrant aroma of cigarette smoke. Not just a "hey, someone is smoking" but a "please enjoy the complimentary lung cancer". The air was heavy and hard to breath. We got into the room to find a standard looking room, two double beds, a tiny fridge and microwave. No coffee pot. The tv did not work. Went to the restroom to find a chunk of door missing, bathtub looked like it had been painted over and it was peeling. There were roaches all over the place. It was obvious to us that people had smoked in the room. It wreaked of smoke and my husband has asthma. We found the smoke detector tucked away in a drawer and hot plate burn marks on the carpet. My kids coughed all night long and my poor husband wheezed. We contacted Priceline to cancel our reservation and were told that we had to pay a penalty. Trust me, the penalty was worth it. I don't care how cheap this hotel was, nothing is worth staying here. Spend the extra $13 and...We booked a few rooms on Priceline after reading mixed reviews. Nothing could have prepared us for the horror that awaited us. We arrived a day early and decided to just stay there for the night since we already had reservations. We asked for two beds, non smoking. As soon as we got off of the elevator we were immediately greeted by the fragrant aroma of cigarette smoke. Not just a "hey, someone is smoking" but a "please enjoy the complimentary lung cancer". The air was heavy and hard to breath. We got into the room to find a standard looking room, two double beds, a tiny fridge and microwave. No coffee pot. The tv did not work. Went to the restroom to find a chunk of door missing, bathtub looked like it had been painted over and it was peeling. There were roaches all over the place. It was obvious to us that people had smoked in the room. It wreaked of smoke and my husband has asthma. We found the smoke detector tucked away in a drawer and hot plate burn marks on the carpet. My kids coughed all night long and my poor husband wheezed. We contacted Priceline to cancel our reservation and were told that we had to pay a penalty. Trust me, the penalty was worth it. I don't care how cheap this hotel was, nothing is worth staying here. Spend the extra $13 and get a better room elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a few rooms on Priceline after reading mixed reviews. Nothing could have prepared us for the horror that awaited us. We arrived a day early and decided to just stay there for the night since we already had reservations. We asked for two beds, non smoking. As soon as we got off of the elevator we were immediately greeted by the fragrant aroma of cigarette smoke. Not just a "hey, someone is smoking" but a "please enjoy the complimentary lung cancer". The air was heavy and hard to breath. We got into the room to find a standard looking room, two double beds, a tiny fridge and microwave. No coffee pot. The tv did not work. Went to the restroom to find a chunk of door missing, bathtub looked like it had been painted over and it was peeling. There were roaches all over the place. It was obvious to us that people had smoked in the room. It wreaked of smoke and my husband has asthma. We found the smoke detector tucked away in a drawer and hot plate burn marks on the carpet. My kids coughed all night long and my poor husband wheezed. We contacted Priceline to cancel our reservation and were told that we had to pay a penalty. Trust me, the penalty was worth it. I don't care how cheap this hotel was, nothing is worth staying here. Spend the extra $13 and...We booked a few rooms on Priceline after reading mixed reviews. Nothing could have prepared us for the horror that awaited us. We arrived a day early and decided to just stay there for the night since we already had reservations. We asked for two beds, non smoking. As soon as we got off of the elevator we were immediately greeted by the fragrant aroma of cigarette smoke. Not just a "hey, someone is smoking" but a "please enjoy the complimentary lung cancer". The air was heavy and hard to breath. We got into the room to find a standard looking room, two double beds, a tiny fridge and microwave. No coffee pot. The tv did not work. Went to the restroom to find a chunk of door missing, bathtub looked like it had been painted over and it was peeling. There were roaches all over the place. It was obvious to us that people had smoked in the room. It wreaked of smoke and my husband has asthma. We found the smoke detector tucked away in a drawer and hot plate burn marks on the carpet. My kids coughed all night long and my poor husband wheezed. We contacted Priceline to cancel our reservation and were told that we had to pay a penalty. Trust me, the penalty was worth it. I don't care how cheap this hotel was, nothing is worth staying here. Spend the extra $13 and get a better room elsewhere. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r343824109-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>343824109</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Everything you need, on a budget, for a New Orleans visit.</t>
+  </si>
+  <si>
+    <t>The price was excellent for the location, less than 15 minutes to the French Quarter. This also helped the budget because of spending a lot less on adult beverages at the music clubs because I knew I had to drive back!  At the hotel the desk staff were efficient and courteous, the parking lot (well lit, and open), lobby, hallways and room were clean and neat. The elevator had some decor issues, but being in there about a total of five minutes over the weekend, it was not of importance. The bed was comfy, the shower water pressure and temp excellent, the wifi was 110% and the working space large with a good office chair. Came for one night, stayed three, had fun downtown and got a lot of work done in room, after a good night's sleep. Oh, and they didn't take the coffee away when breakfast ended! Nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The price was excellent for the location, less than 15 minutes to the French Quarter. This also helped the budget because of spending a lot less on adult beverages at the music clubs because I knew I had to drive back!  At the hotel the desk staff were efficient and courteous, the parking lot (well lit, and open), lobby, hallways and room were clean and neat. The elevator had some decor issues, but being in there about a total of five minutes over the weekend, it was not of importance. The bed was comfy, the shower water pressure and temp excellent, the wifi was 110% and the working space large with a good office chair. Came for one night, stayed three, had fun downtown and got a lot of work done in room, after a good night's sleep. Oh, and they didn't take the coffee away when breakfast ended! Nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r340216848-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>340216848</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>Clean and quit,easy in and out,good ouick breakfast.Very affordable. Only problem was the water was only warm not good for morning shower.TV new and cable was great, WI FI was fast and easy to sign on to , no coffe in room, had microwave and frigre.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r332020990-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>332020990</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>We stayed here for one night on our way back to Texas from Orlando FL. It was disgusting. The room smelled horrible. The hallway had no a/c. The shower in our room didnt deliver water through the top so we had to shower with a cup. In my moms room her shower didn't have a curtain. There was lots of noise outside and the front desk man was rude. I heard him cussing as he hung up the phone with someone asking him for directions to the hotel. My original plan was to stay 2 nights but after the first night we did not.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r320011497-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>320011497</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>We were in the need for a extra night in NOLA and found this cheap place. The check in went great, but when we came into our room there was water dripping from the sealing over the bed and out on the floor.We got a new room without any problems.Poor wifi-signals...The breakfast was Continental but ok. When we came down to the breakfast area in the morning we were met by a large group of locals that looked like they we're having a meeting in the middle of the diningroom. During our entire breakfast it looked like there were some other locals moving in or out of the hotel with lagre moving-boxes and loud People.. Felt quite unsafe sometimes, but we came out of it alive.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We were in the need for a extra night in NOLA and found this cheap place. The check in went great, but when we came into our room there was water dripping from the sealing over the bed and out on the floor.We got a new room without any problems.Poor wifi-signals...The breakfast was Continental but ok. When we came down to the breakfast area in the morning we were met by a large group of locals that looked like they we're having a meeting in the middle of the diningroom. During our entire breakfast it looked like there were some other locals moving in or out of the hotel with lagre moving-boxes and loud People.. Felt quite unsafe sometimes, but we came out of it alive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r292634333-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>292634333</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>You pay for what you get</t>
+  </si>
+  <si>
+    <t>We were doing a three week road trip in America and decided to spend the 4th July in New Orleans,We booked this hotel as there was an outdoor pool and being pregnant was well needed for me to relax in the hot weather,The pool was closed so we asked at check in if it was going to be opened and one gentlemen said no and the other said yes it's just being cleaned,The pool never opened in the three days we were there,I did email the hotel after my stay but never got a reply, as there wasn't any mention of this on their website and if we had known we would have cancelled the booking,The breakfst was basic and seemed to be a bug issue in the dining room,MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We were doing a three week road trip in America and decided to spend the 4th July in New Orleans,We booked this hotel as there was an outdoor pool and being pregnant was well needed for me to relax in the hot weather,The pool was closed so we asked at check in if it was going to be opened and one gentlemen said no and the other said yes it's just being cleaned,The pool never opened in the three days we were there,I did email the hotel after my stay but never got a reply, as there wasn't any mention of this on their website and if we had known we would have cancelled the booking,The breakfst was basic and seemed to be a bug issue in the dining room,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r285859665-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>285859665</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>When you book the cheapest hotel you can't expect much</t>
+  </si>
+  <si>
+    <t>Planned a VERY last minute trip to New Orleans for the 4th of July. Used expedia to book our hotel room since we were having such a hard time finding an affordable hotel literally hours before we needed to check in. Normally I like to actually plan out a trip, read reviews ( I love trip advisor), ask friends or family, or just use our favorite travel agent. Well at 11pm on July 2nd my husband says "let's drive to New Orleans and stay for the 4th" So here begins the adventure for this hotel.
+We booked this hotel without reading any reviews because there was pretty much nothing else within range of New Orleans with rooms still open. This hotel was cheap and according to expedia looked decent. Then after I have booked the hotel thru their website I read the tripadvisor reviews. "Murder scene" is an actual phrase used to rate this hotel. I was TERRIFIED! 
+We got to the hotel around  5:30 and checked in. Was fairly easy and fast. While walking to the elevator we saw the "breakfast" area. The photos on expedia are very misleading. Now they do have a breakfast area it is just not as nice or stocked as their photos show. The elevator was quite old and made some scary noises but it did get us to the 7th floor. 
+Our room was very outdated, HOT (because they left the AC off),...Planned a VERY last minute trip to New Orleans for the 4th of July. Used expedia to book our hotel room since we were having such a hard time finding an affordable hotel literally hours before we needed to check in. Normally I like to actually plan out a trip, read reviews ( I love trip advisor), ask friends or family, or just use our favorite travel agent. Well at 11pm on July 2nd my husband says "let's drive to New Orleans and stay for the 4th" So here begins the adventure for this hotel.We booked this hotel without reading any reviews because there was pretty much nothing else within range of New Orleans with rooms still open. This hotel was cheap and according to expedia looked decent. Then after I have booked the hotel thru their website I read the tripadvisor reviews. "Murder scene" is an actual phrase used to rate this hotel. I was TERRIFIED! We got to the hotel around  5:30 and checked in. Was fairly easy and fast. While walking to the elevator we saw the "breakfast" area. The photos on expedia are very misleading. Now they do have a breakfast area it is just not as nice or stocked as their photos show. The elevator was quite old and made some scary noises but it did get us to the 7th floor. Our room was very outdated, HOT (because they left the AC off), but clean. The first thing we did was check the bed for bugs as most of all the recent reviews have that listed as a huge issue but we saw none and the linens were clean. Next we checked the bathroom and while small and yes outdated it smelled like cleaner and was visibly clean. Now I would not book this trip if you are looking to spend a romantic weekend in New Orleans, I wouldn't book this hotel if you are looking for an updated place with amenities, and I wouldn't book this hotel if you want to be within walking distance of downtown New Orleans. I would book this hotel knowing that it was the cheapest room and I had no real plans of spending my time in New Orleans hanging out in my room. You just have to know that going into this when you find a hotel room for close to or under 100 bucks on a holiday weekend last minute you are not staying at the Ritz Carlton or even the Holiday Inn. No murder scene in our room and no bed bugs!MoreShow less</t>
+  </si>
+  <si>
+    <t>Planned a VERY last minute trip to New Orleans for the 4th of July. Used expedia to book our hotel room since we were having such a hard time finding an affordable hotel literally hours before we needed to check in. Normally I like to actually plan out a trip, read reviews ( I love trip advisor), ask friends or family, or just use our favorite travel agent. Well at 11pm on July 2nd my husband says "let's drive to New Orleans and stay for the 4th" So here begins the adventure for this hotel.
+We booked this hotel without reading any reviews because there was pretty much nothing else within range of New Orleans with rooms still open. This hotel was cheap and according to expedia looked decent. Then after I have booked the hotel thru their website I read the tripadvisor reviews. "Murder scene" is an actual phrase used to rate this hotel. I was TERRIFIED! 
+We got to the hotel around  5:30 and checked in. Was fairly easy and fast. While walking to the elevator we saw the "breakfast" area. The photos on expedia are very misleading. Now they do have a breakfast area it is just not as nice or stocked as their photos show. The elevator was quite old and made some scary noises but it did get us to the 7th floor. 
+Our room was very outdated, HOT (because they left the AC off),...Planned a VERY last minute trip to New Orleans for the 4th of July. Used expedia to book our hotel room since we were having such a hard time finding an affordable hotel literally hours before we needed to check in. Normally I like to actually plan out a trip, read reviews ( I love trip advisor), ask friends or family, or just use our favorite travel agent. Well at 11pm on July 2nd my husband says "let's drive to New Orleans and stay for the 4th" So here begins the adventure for this hotel.We booked this hotel without reading any reviews because there was pretty much nothing else within range of New Orleans with rooms still open. This hotel was cheap and according to expedia looked decent. Then after I have booked the hotel thru their website I read the tripadvisor reviews. "Murder scene" is an actual phrase used to rate this hotel. I was TERRIFIED! We got to the hotel around  5:30 and checked in. Was fairly easy and fast. While walking to the elevator we saw the "breakfast" area. The photos on expedia are very misleading. Now they do have a breakfast area it is just not as nice or stocked as their photos show. The elevator was quite old and made some scary noises but it did get us to the 7th floor. Our room was very outdated, HOT (because they left the AC off), but clean. The first thing we did was check the bed for bugs as most of all the recent reviews have that listed as a huge issue but we saw none and the linens were clean. Next we checked the bathroom and while small and yes outdated it smelled like cleaner and was visibly clean. Now I would not book this trip if you are looking to spend a romantic weekend in New Orleans, I wouldn't book this hotel if you are looking for an updated place with amenities, and I wouldn't book this hotel if you want to be within walking distance of downtown New Orleans. I would book this hotel knowing that it was the cheapest room and I had no real plans of spending my time in New Orleans hanging out in my room. You just have to know that going into this when you find a hotel room for close to or under 100 bucks on a holiday weekend last minute you are not staying at the Ritz Carlton or even the Holiday Inn. No murder scene in our room and no bed bugs!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r271361085-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>271361085</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Do not stay here! I'm still itching from the dozen bed bug bites!!!</t>
+  </si>
+  <si>
+    <t>Woke up to a dozen bites! Clearly caused by bed bugs and not just leaving the patio open. We took a pic and googled searched and it was an adult bed bug! They offered no apologies cause I'm sure they already knew it was a problem!!!!! I'm still itching! Do not stay here!!!!!!!! Sleep in your rental!!!!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r271139178-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>271139178</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Do stay there, they have bed bugs.!</t>
+  </si>
+  <si>
+    <t>I should have known this place was horrible soon as I realizes they charged my bank card 2X for 1 night and didn't want to give me a refund. But that was my least worries. Me and my family had to check out because our room was infested with bed bugs! They were crawling all over the bed &amp; headboard like roaches. Every time we would kill one they wud be full of blood :( this was very scary and disturbing. My friend got bitten by the bed bugs at least 5 times! We have pictures of the bed bug bites and the bed bugs on the bed. If anyone have any questions Email me @ Johnettecoleman@yahoo.com Please Do Not Stay at Knights Inn 5801 Read Blvd N.O. LouisianaMoreShow less</t>
+  </si>
+  <si>
+    <t>I should have known this place was horrible soon as I realizes they charged my bank card 2X for 1 night and didn't want to give me a refund. But that was my least worries. Me and my family had to check out because our room was infested with bed bugs! They were crawling all over the bed &amp; headboard like roaches. Every time we would kill one they wud be full of blood :( this was very scary and disturbing. My friend got bitten by the bed bugs at least 5 times! We have pictures of the bed bug bites and the bed bugs on the bed. If anyone have any questions Email me @ Johnettecoleman@yahoo.com Please Do Not Stay at Knights Inn 5801 Read Blvd N.O. LouisianaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r271005572-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>271005572</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>NASTY!!</t>
+  </si>
+  <si>
+    <t>This is by far the worst hotel I've ever stayed at. I've never seen so much filth in my life.. Walked in the room and the chair was covered in red stains, pretty sure our room had been a past murder scene.. Outside was not much different, even though it's cheap, it's in a TERRIBLE location.. The receptacles do not even have covers!! Air conditioner was terrible... Please please do not stay here!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r269677077-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>269677077</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Better than expected </t>
+  </si>
+  <si>
+    <t>Don't mind all the picky people's negative comments. Paid far better money for the same type accommodations downtown. Room was clean, place was quite. It is a older hotel and as such has minor cosmetic dings. As far as the bugs I read about, don't leave the balcony wide open with the lights on, problem solved. Great hotel for the money..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r266472004-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>266472004</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>full of bed bugs</t>
+  </si>
+  <si>
+    <t>All I needed was the basics and I thought for the price it would be worth it. I checked-in around 10pm and left at 5am the next morning because I  woke up with dozens of bed bug bites from face to foot. DO NOT STAY HERE.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r260299000-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>260299000</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Disgusting Hotel, Scam Artist Owners</t>
+  </si>
+  <si>
+    <t>I have travelled the world, including countries in Africa and Asia, and have stayed in hostels/motels priced at less than a $1 day. I have never stayed at a place as disgusting at Knights Inn New Orleans on Read. The building structure itself looks like it needs to be condemned, and I would even doubt that even the elevators are serviced regularly for safety standards. The carpets appear to be years old and unsanitary. The entire lobby was full of fumes of cheap cleaner. 
+I booked my room using Kayak with Orbitz serving as an intermediary. The hotel was rated as 2 stars, and based on this, judged that the hotel itself would provide the basic amenities such as clean towels, working light fixtures, and a sanitary room. We were not looking for anything fancy. When we got to our room, the key card access machine was coated in a strange brownish coating that was sticky to touch. When we entered the room, the lighting fixtures did not work and the entire room smelled of cigarettes despite requesting a non-smoking room. The sheets even had small ants crawling all over them. The towels were badly stained. We asked the front desk to fix the lighting upon leaving that day and they said they would take care of it. When we got back at around midnight, nothing in the room was improved. 
+In the evening time, this place is full of...I have travelled the world, including countries in Africa and Asia, and have stayed in hostels/motels priced at less than a $1 day. I have never stayed at a place as disgusting at Knights Inn New Orleans on Read. The building structure itself looks like it needs to be condemned, and I would even doubt that even the elevators are serviced regularly for safety standards. The carpets appear to be years old and unsanitary. The entire lobby was full of fumes of cheap cleaner. I booked my room using Kayak with Orbitz serving as an intermediary. The hotel was rated as 2 stars, and based on this, judged that the hotel itself would provide the basic amenities such as clean towels, working light fixtures, and a sanitary room. We were not looking for anything fancy. When we got to our room, the key card access machine was coated in a strange brownish coating that was sticky to touch. When we entered the room, the lighting fixtures did not work and the entire room smelled of cigarettes despite requesting a non-smoking room. The sheets even had small ants crawling all over them. The towels were badly stained. We asked the front desk to fix the lighting upon leaving that day and they said they would take care of it. When we got back at around midnight, nothing in the room was improved. In the evening time, this place is full of loitering drug addicts and other questionable people. There is no security whatsoever at this hotel. When we walked into the lobby, there were random guests and strangers smoking marijuana and doing drugs. There was no one on staff at the checkin counter. Immediately after seeing this, I called Orbitz to discuss canceling the remainder of our reservation considering that this Knights Inn misrepresented their property online. We did not sleep the whole night due to the fact that the beds were covered in insects, the room smelled of cigarettes, and that guests were loud and slamming doors all night long. Knights Inn was unwilling to refund us the money we pre-paid for 4 nights, despite checking out early next morning! They claim they have a policy where if we stay the first night, that we are required to pay for the remainder of the stay. These people are a bunch of scam artists. They are luring in nonlocal customers online by misrepresenting their property and then turning around and refusing to refund the money already paid for services not used after seeing the quality and safety of the property after staying the first night. After arguing with Orbitz all night long about having our money refunded, they finally agreed to cancel our reservation without penalty. However, these scam artists are now lying and claiming that we stayed the full 4 nights and that we are lying about checking out early the next morning. If we did stay here all those nights, why would we have a hotel bill for the Marriott for the last 3 of those nights?Please do not stay here. The standards here are not of first world quality. There are plenty of other quality motels in the area of the same price range that are actually clean and of standard. These other motels also employ honest, hardworking people. I would recommend those instead. The people at this Knights Inn are liars and cheaters. I will be pursuing further complaints with Wyndham, Orbitz, Kayak, Knights Inn, Mastercard, and the Better Business Bureau to have my money refunded. I do not want them to get away with these adverse business practices on me or anyone else that is tricked into staying with them in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I have travelled the world, including countries in Africa and Asia, and have stayed in hostels/motels priced at less than a $1 day. I have never stayed at a place as disgusting at Knights Inn New Orleans on Read. The building structure itself looks like it needs to be condemned, and I would even doubt that even the elevators are serviced regularly for safety standards. The carpets appear to be years old and unsanitary. The entire lobby was full of fumes of cheap cleaner. 
+I booked my room using Kayak with Orbitz serving as an intermediary. The hotel was rated as 2 stars, and based on this, judged that the hotel itself would provide the basic amenities such as clean towels, working light fixtures, and a sanitary room. We were not looking for anything fancy. When we got to our room, the key card access machine was coated in a strange brownish coating that was sticky to touch. When we entered the room, the lighting fixtures did not work and the entire room smelled of cigarettes despite requesting a non-smoking room. The sheets even had small ants crawling all over them. The towels were badly stained. We asked the front desk to fix the lighting upon leaving that day and they said they would take care of it. When we got back at around midnight, nothing in the room was improved. 
+In the evening time, this place is full of...I have travelled the world, including countries in Africa and Asia, and have stayed in hostels/motels priced at less than a $1 day. I have never stayed at a place as disgusting at Knights Inn New Orleans on Read. The building structure itself looks like it needs to be condemned, and I would even doubt that even the elevators are serviced regularly for safety standards. The carpets appear to be years old and unsanitary. The entire lobby was full of fumes of cheap cleaner. I booked my room using Kayak with Orbitz serving as an intermediary. The hotel was rated as 2 stars, and based on this, judged that the hotel itself would provide the basic amenities such as clean towels, working light fixtures, and a sanitary room. We were not looking for anything fancy. When we got to our room, the key card access machine was coated in a strange brownish coating that was sticky to touch. When we entered the room, the lighting fixtures did not work and the entire room smelled of cigarettes despite requesting a non-smoking room. The sheets even had small ants crawling all over them. The towels were badly stained. We asked the front desk to fix the lighting upon leaving that day and they said they would take care of it. When we got back at around midnight, nothing in the room was improved. In the evening time, this place is full of loitering drug addicts and other questionable people. There is no security whatsoever at this hotel. When we walked into the lobby, there were random guests and strangers smoking marijuana and doing drugs. There was no one on staff at the checkin counter. Immediately after seeing this, I called Orbitz to discuss canceling the remainder of our reservation considering that this Knights Inn misrepresented their property online. We did not sleep the whole night due to the fact that the beds were covered in insects, the room smelled of cigarettes, and that guests were loud and slamming doors all night long. Knights Inn was unwilling to refund us the money we pre-paid for 4 nights, despite checking out early next morning! They claim they have a policy where if we stay the first night, that we are required to pay for the remainder of the stay. These people are a bunch of scam artists. They are luring in nonlocal customers online by misrepresenting their property and then turning around and refusing to refund the money already paid for services not used after seeing the quality and safety of the property after staying the first night. After arguing with Orbitz all night long about having our money refunded, they finally agreed to cancel our reservation without penalty. However, these scam artists are now lying and claiming that we stayed the full 4 nights and that we are lying about checking out early the next morning. If we did stay here all those nights, why would we have a hotel bill for the Marriott for the last 3 of those nights?Please do not stay here. The standards here are not of first world quality. There are plenty of other quality motels in the area of the same price range that are actually clean and of standard. These other motels also employ honest, hardworking people. I would recommend those instead. The people at this Knights Inn are liars and cheaters. I will be pursuing further complaints with Wyndham, Orbitz, Kayak, Knights Inn, Mastercard, and the Better Business Bureau to have my money refunded. I do not want them to get away with these adverse business practices on me or anyone else that is tricked into staying with them in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r254551234-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>254551234</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>If it wasn't for mardi gras!!!</t>
+  </si>
+  <si>
+    <t>Checked in around 5 pm. Headed right out for a scheduled tour only to return to small Insects on toilet. No staff to deal problem. Front desk had a friend come and spray bug killer on and around commode. They gave us bleach in a spray bottle if we wanted the toilet cleaner. There was a lot of Paint on carpet. The room appeared to be in the middle of  renovations. Drywall damage. Went through expedia. No comp for for bad experience nor an apooogy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r254375188-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>254375188</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Not a Good Choice</t>
+  </si>
+  <si>
+    <t>We stayed here only because we arrived in the New Orleans area late at night and didn't want to spend a lot of time looking for a place to stay...(boy were we sorry we didn't keep looking!!)  Buyer beware - This place DOES NOT look like the pictures posted online!  In actuality this OVER PRICED flea-bag of a motel or hotel or what ever it's called should be closed down!!  OMG, don't these places have a corporate office or something that sends people out to do some sort of a periodic "quality" check??  Everything about this place was filthy, the floors weren't swept (anywhere that we could see), there were wads of kleenex on the elevator floor, the hallways smelled bad, there were dried dirty washcloths still hanging over our shower curtain obviously from the previous "tenants", the furniture in our room was broken down, shabby and I don't even want to know what those "stains" were all bout.  The towels and bed linens were thin and worn, the bed mattress was very uncomfortable and the flimsy bed pillows were even worse (how can something so flat be so lumpy?).  Their idea of a "breakfast area" was pitiful as were the food choices (oh, and did I mention the breakfast area was also filthy?), so instead of enjoying our free (LOL) complimentary breakfast we vacated the premises and couldn't get out of there fast enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We stayed here only because we arrived in the New Orleans area late at night and didn't want to spend a lot of time looking for a place to stay...(boy were we sorry we didn't keep looking!!)  Buyer beware - This place DOES NOT look like the pictures posted online!  In actuality this OVER PRICED flea-bag of a motel or hotel or what ever it's called should be closed down!!  OMG, don't these places have a corporate office or something that sends people out to do some sort of a periodic "quality" check??  Everything about this place was filthy, the floors weren't swept (anywhere that we could see), there were wads of kleenex on the elevator floor, the hallways smelled bad, there were dried dirty washcloths still hanging over our shower curtain obviously from the previous "tenants", the furniture in our room was broken down, shabby and I don't even want to know what those "stains" were all bout.  The towels and bed linens were thin and worn, the bed mattress was very uncomfortable and the flimsy bed pillows were even worse (how can something so flat be so lumpy?).  Their idea of a "breakfast area" was pitiful as were the food choices (oh, and did I mention the breakfast area was also filthy?), so instead of enjoying our free (LOL) complimentary breakfast we vacated the premises and couldn't get out of there fast enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r248739223-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>248739223</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Horrifying</t>
+  </si>
+  <si>
+    <t>We stayed here with a group, didn't feel like we could complain to the entire group. Room was crappy, roaches in bathroom, faucet dropped ALL night, toilet leaked causing toilet water to be ALL OVER THE FLOOR, beds are NOT queen beds as advertised, filthy!!!! This hotel should be condemed!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r248302898-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>248302898</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>BAD:(</t>
+  </si>
+  <si>
+    <t>We stayed during the Sugar Bowl. I made my reservations online.  By looking at the photos, the hotel looked clean and well kept.  The photos were deceiving and we paid too much money to stay in a rundown dirty hotel (the price was elevated due to the Sugar Bowl event).  The breakfast consisted of bread, cereal, and juice that you had to squeeze out from a plastic bottle (too dirty to eat or drink).  I was very disappointed. I will NEVER stay there again!!!!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r247096630-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247096630</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for three nights because we had no choice. It was during New Years Eve &amp; the Sugar Bowl. It was very run down &amp; not clean. The last two days we were there they had NO HOT WATER. They put a note under our door saying we would get a $25 credit. When we returned to our rooms on the last evening we were supposed to stay there was STILL NO HOT WATER. By this time there were other rooms available in the area so we decided to leave. We had to argue with the manager to not charge us for that night since it was after checkout time ( it was about 6 PM). So we were supposed to have two rooms for four nights &amp; ended up staying three nights, with no hot water for two out of three nights. Terrible!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for three nights because we had no choice. It was during New Years Eve &amp; the Sugar Bowl. It was very run down &amp; not clean. The last two days we were there they had NO HOT WATER. They put a note under our door saying we would get a $25 credit. When we returned to our rooms on the last evening we were supposed to stay there was STILL NO HOT WATER. By this time there were other rooms available in the area so we decided to leave. We had to argue with the manager to not charge us for that night since it was after checkout time ( it was about 6 PM). So we were supposed to have two rooms for four nights &amp; ended up staying three nights, with no hot water for two out of three nights. Terrible!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r239724337-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>239724337</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>save money!!!! stay here its all good</t>
+  </si>
+  <si>
+    <t>Stayed 10/3-10/5/14 &amp; 10/31-11/2/14  beds are comfy, friendly staff, safe environment, cold ac, nice view of city lights from balcony, popeyes , waffle house in walking distance , stores and gas nearby .They are in the process of renovating and some of the rooms have been renovated . The room we had was not, but for the price it was really nice no complaints.  we loved our first stay here and the second stay was even better. Definitely our next stay . You will get a good nights rest with no problems.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r237206982-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>237206982</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Great stay- simple and affordable</t>
+  </si>
+  <si>
+    <t>Also my husband LOVES the donuts for breakfast.  Cheap and close enough to NOLA too.  We didn't expect much but you get a decent value for the money.  And so close to New Orleans too.  2nd floor had great wifi</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r234458697-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>234458697</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r234226767-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>234226767</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>I knew that this place was cheap, but was not prepared for what I got</t>
+  </si>
+  <si>
+    <t>So when you check in the place looks adequate from the lobby, then you go to get on the elevator and are horrified by what looks like something out of a housing development in Detroit, or maybe Soviet Union Russia. The ice machine had bugs being dispensed, our room had insects crawling all over the nightstand and sink, pungent odor when you first walk in the room, and when you ran the shower, the faucet was still running water, so the water pressure was lower as a result. Their "breakfast area" is just a run down microwave and coffee machine, no free breakfast here, not that I think I would want anything they would serve. Would never stay here again...stay away!MoreShow less</t>
+  </si>
+  <si>
+    <t>So when you check in the place looks adequate from the lobby, then you go to get on the elevator and are horrified by what looks like something out of a housing development in Detroit, or maybe Soviet Union Russia. The ice machine had bugs being dispensed, our room had insects crawling all over the nightstand and sink, pungent odor when you first walk in the room, and when you ran the shower, the faucet was still running water, so the water pressure was lower as a result. Their "breakfast area" is just a run down microwave and coffee machine, no free breakfast here, not that I think I would want anything they would serve. Would never stay here again...stay away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r230840799-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>230840799</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>perfect for the price</t>
+  </si>
+  <si>
+    <t>When I first saw this hotel it has 2 1/2 stars out of five But @ $54 - $10 less then the next hotel I was like what the heck but in arrival everything was fine - room was clean spacious with an open view. They have fridge microwave cable in room - waffle breakfast. A pool parking places to eat CVS gas station literally next door / across the street - very close to the freeway entrance - 15 minutes freeway drive from downtown I don't know what people were expecting giving such low score but for me it was exactly what I needed- only thing annoying was the desk in the room too high for the chair otherwise for the price i paid it was perfectMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>When I first saw this hotel it has 2 1/2 stars out of five But @ $54 - $10 less then the next hotel I was like what the heck but in arrival everything was fine - room was clean spacious with an open view. They have fridge microwave cable in room - waffle breakfast. A pool parking places to eat CVS gas station literally next door / across the street - very close to the freeway entrance - 15 minutes freeway drive from downtown I don't know what people were expecting giving such low score but for me it was exactly what I needed- only thing annoying was the desk in the room too high for the chair otherwise for the price i paid it was perfectMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r230554876-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>230554876</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>Not A Good Place To Stay</t>
+  </si>
+  <si>
+    <t>They were doing a remodel  so it was very messy. When you walked in, it  wasn't bad. Once you headed for the room you could tell that it was dirty and neglected. Coffee pot didn't work , refrigerator wasn't cold enough and hair dryer didn't work. If we had known what it was like we never would have booked there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r228008998-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>228008998</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Knights Inn at New Orleans East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I arrived, the Concierge at the front desk informed me that it was her birthday and she was doing various events, one of which was a pool party.  The next day I ate my first crawfish, along with some other wonderful food.  Her name was Earnestine and I noticed her also supplying information about New Orleans to other guests along with directions.  She really made my stay great. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r214753658-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>214753658</t>
+  </si>
+  <si>
+    <t>07/10/2014</t>
+  </si>
+  <si>
+    <t>An adequate stay...</t>
+  </si>
+  <si>
+    <t>In our attempt to find a budget inn for our 4 day New Orleans vacation, we came across Knights Inn online and booked it. It was at a great price, $50 a night online. You kind of get what you pay for, however. As soon as we walked through the front door, we were met with a very musty, unpleasant odor. We had no issues getting a room and the staff was friendly. The elevator reeked of cigarette smoke for the duration of our stay. Did people hang out in the elevator and smoked? We were given a room on the 6th floor, where there is a very large pile of broken, old air conditioning units just lying there right beside the elevator. That is preposterous and downright lazy. Our entire floor reeked of rotten food, as though someone had dropped an egg in a corner somewhere and no one had bothered to clean it up. The smell hadnt seeped into our room, thank goodness. The beds were adequate. The AC unit was in good working order. The floor of the bathtub,  however, was flaking and got on everything whenever we showered. I made the mistake of taking a bath at one point and spent some time attempting to remove the white flakes from my hair. Breakfast was alright, if lacking a bit. I suppose we could not expect much for 50 a night. The pool remained closed for 2...In our attempt to find a budget inn for our 4 day New Orleans vacation, we came across Knights Inn online and booked it. It was at a great price, $50 a night online. You kind of get what you pay for, however. As soon as we walked through the front door, we were met with a very musty, unpleasant odor. We had no issues getting a room and the staff was friendly. The elevator reeked of cigarette smoke for the duration of our stay. Did people hang out in the elevator and smoked? We were given a room on the 6th floor, where there is a very large pile of broken, old air conditioning units just lying there right beside the elevator. That is preposterous and downright lazy. Our entire floor reeked of rotten food, as though someone had dropped an egg in a corner somewhere and no one had bothered to clean it up. The smell hadnt seeped into our room, thank goodness. The beds were adequate. The AC unit was in good working order. The floor of the bathtub,  however, was flaking and got on everything whenever we showered. I made the mistake of taking a bath at one point and spent some time attempting to remove the white flakes from my hair. Breakfast was alright, if lacking a bit. I suppose we could not expect much for 50 a night. The pool remained closed for 2 days straight. When I asked an oblivious staff member as to when it would open, she just said she didn't know and went on her way. It's not too far from downtown, which was a good thing. It's also very quiet at night and nobody bothers you, which is another plus. We went in not expecting too much which is why it was adequate enough. If you're looking for something cheap and convenient for a low budget, albeit smelly and a bit disorganized, than knights inn should meet your needs. Don't expect too much, however.MoreShow less</t>
+  </si>
+  <si>
+    <t>In our attempt to find a budget inn for our 4 day New Orleans vacation, we came across Knights Inn online and booked it. It was at a great price, $50 a night online. You kind of get what you pay for, however. As soon as we walked through the front door, we were met with a very musty, unpleasant odor. We had no issues getting a room and the staff was friendly. The elevator reeked of cigarette smoke for the duration of our stay. Did people hang out in the elevator and smoked? We were given a room on the 6th floor, where there is a very large pile of broken, old air conditioning units just lying there right beside the elevator. That is preposterous and downright lazy. Our entire floor reeked of rotten food, as though someone had dropped an egg in a corner somewhere and no one had bothered to clean it up. The smell hadnt seeped into our room, thank goodness. The beds were adequate. The AC unit was in good working order. The floor of the bathtub,  however, was flaking and got on everything whenever we showered. I made the mistake of taking a bath at one point and spent some time attempting to remove the white flakes from my hair. Breakfast was alright, if lacking a bit. I suppose we could not expect much for 50 a night. The pool remained closed for 2...In our attempt to find a budget inn for our 4 day New Orleans vacation, we came across Knights Inn online and booked it. It was at a great price, $50 a night online. You kind of get what you pay for, however. As soon as we walked through the front door, we were met with a very musty, unpleasant odor. We had no issues getting a room and the staff was friendly. The elevator reeked of cigarette smoke for the duration of our stay. Did people hang out in the elevator and smoked? We were given a room on the 6th floor, where there is a very large pile of broken, old air conditioning units just lying there right beside the elevator. That is preposterous and downright lazy. Our entire floor reeked of rotten food, as though someone had dropped an egg in a corner somewhere and no one had bothered to clean it up. The smell hadnt seeped into our room, thank goodness. The beds were adequate. The AC unit was in good working order. The floor of the bathtub,  however, was flaking and got on everything whenever we showered. I made the mistake of taking a bath at one point and spent some time attempting to remove the white flakes from my hair. Breakfast was alright, if lacking a bit. I suppose we could not expect much for 50 a night. The pool remained closed for 2 days straight. When I asked an oblivious staff member as to when it would open, she just said she didn't know and went on her way. It's not too far from downtown, which was a good thing. It's also very quiet at night and nobody bothers you, which is another plus. We went in not expecting too much which is why it was adequate enough. If you're looking for something cheap and convenient for a low budget, albeit smelly and a bit disorganized, than knights inn should meet your needs. Don't expect too much, however.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r209956168-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>209956168</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r207577289-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207577289</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>Hotel is a 7 storey building with most rooms having a balcony facing frontside (though only the smoking room people will have access to it, for non smoking they are locked). Quite close to New Orleans downtown with the Bourbon street within 6 miles. Rooms were clean and OK - Overall a decent stay.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r201041439-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201041439</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Not recommended!</t>
+  </si>
+  <si>
+    <t>Firstly, let me start by confirming that I regularly stay at budget hotels. I did not expect luxury at all, but even I was quite shocked by the Knights Inn. The electrical wiring looked extremely dangerous and we had to unplug our fridge as it made a terrible high pitched noise. In the corridor near our room there was a large pile of old air conditioning units that nobody had bothered to get rid of. The lift was terrifying and a sign on the door basically stated that it gets stuck ('If you get stuck in the elevator please be patient'!). It takes ages to get to the French Quarter and Superdome despite being advertised as being 'within easy access'. There is nothing at all in the local area unless you count a dodgy Waffle House as something. Even though the area and hotel were bad, the staff and owners could have made it at least a little better with good service, but no luck there. They wouldn't even call a taxi for me to get to the airport! I'd never stay here again, nor would I recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Firstly, let me start by confirming that I regularly stay at budget hotels. I did not expect luxury at all, but even I was quite shocked by the Knights Inn. The electrical wiring looked extremely dangerous and we had to unplug our fridge as it made a terrible high pitched noise. In the corridor near our room there was a large pile of old air conditioning units that nobody had bothered to get rid of. The lift was terrifying and a sign on the door basically stated that it gets stuck ('If you get stuck in the elevator please be patient'!). It takes ages to get to the French Quarter and Superdome despite being advertised as being 'within easy access'. There is nothing at all in the local area unless you count a dodgy Waffle House as something. Even though the area and hotel were bad, the staff and owners could have made it at least a little better with good service, but no luck there. They wouldn't even call a taxi for me to get to the airport! I'd never stay here again, nor would I recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d89061-r200207775-Knights_Inn_New_Orleans-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>200207775</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halls are dingy, elevator is rickety, public restroom in the lobby is "out of order". Non-smoking rooms reek of cigarette smoke, no wifi anywhere except the lobby (despite being told there was wifi in the rooms, when we specifically asked) and the toilet is NOT attached to the floor. Needless to say, we'll be finding a new hotel for the rest of the trip. My biggest regret: that I have to rate them one star because I can't give them 0. </t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +1341,2560 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" t="s">
+        <v>161</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>156</v>
+      </c>
+      <c r="O24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s">
+        <v>177</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>189</v>
+      </c>
+      <c r="L27" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>192</v>
+      </c>
+      <c r="J28" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" t="s">
+        <v>195</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>196</v>
+      </c>
+      <c r="O28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>208</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" t="s">
+        <v>212</v>
+      </c>
+      <c r="L31" t="s">
+        <v>213</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" t="s">
+        <v>219</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>230</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" t="s">
+        <v>233</v>
+      </c>
+      <c r="L35" t="s">
+        <v>234</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>220</v>
+      </c>
+      <c r="O35" t="s">
+        <v>54</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>237</v>
+      </c>
+      <c r="J36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" t="s">
+        <v>239</v>
+      </c>
+      <c r="L36" t="s">
+        <v>240</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>241</v>
+      </c>
+      <c r="O36" t="s">
+        <v>54</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>244</v>
+      </c>
+      <c r="J37" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" t="s">
+        <v>246</v>
+      </c>
+      <c r="L37" t="s">
+        <v>247</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>241</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" t="s">
+        <v>251</v>
+      </c>
+      <c r="L38" t="s">
+        <v>252</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>253</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s">
+        <v>257</v>
+      </c>
+      <c r="L39" t="s">
+        <v>258</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>260</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>261</v>
+      </c>
+      <c r="J40" t="s">
+        <v>262</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>263</v>
+      </c>
+      <c r="O40" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>265</v>
+      </c>
+      <c r="J41" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" t="s">
+        <v>267</v>
+      </c>
+      <c r="L41" t="s">
+        <v>268</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>269</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>271</v>
+      </c>
+      <c r="J42" t="s">
+        <v>272</v>
+      </c>
+      <c r="K42" t="s">
+        <v>273</v>
+      </c>
+      <c r="L42" t="s">
+        <v>274</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>275</v>
+      </c>
+      <c r="O42" t="s">
+        <v>54</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7072</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>278</v>
+      </c>
+      <c r="J43" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" t="s">
+        <v>280</v>
+      </c>
+      <c r="L43" t="s">
+        <v>281</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>275</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +3917,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +3949,31 @@
         <v>7072</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="E2" t="n">
         <v>70127</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
